--- a/downloaded_files/EECS102_Tutorial-35887.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35887.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -244,6 +244,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed khaled abd el azeez mohamedd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240150</x:t>
@@ -386,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1543,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.639375544</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.6088936343</x:v>
+        <x:v>45914.639375544</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6863828357</x:v>
+        <x:v>45914.6088936343</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1633,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6863828357</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35887.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35887.xlsx
@@ -1328,7 +1328,7 @@
       </x:c>
       <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45914.5851292824</x:v>
+        <x:v>45927.5385569444</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
